--- a/question4.xlsx
+++ b/question4.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Desktop\Probability\3_Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Documents\GitHub\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66798F4A-5234-48F6-9440-992717E0761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041F8A8A-76B2-4938-9C1C-634E04B4866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="50" windowWidth="18620" windowHeight="10030" xr2:uid="{AA737C8F-C795-494B-9C77-F7EC1310A927}"/>
   </bookViews>
   <sheets>
-    <sheet name="Taul2" sheetId="2" r:id="rId1"/>
+    <sheet name="question4" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>X</t>
   </si>
@@ -44,10 +44,25 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">step parameter t = </t>
-  </si>
-  <si>
     <t>start point (X0,Y0)</t>
+  </si>
+  <si>
+    <t>The value of function f(x,y) at the minimum point</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f  = </t>
+  </si>
+  <si>
+    <t>Gradient Descent method</t>
+  </si>
+  <si>
+    <t>Fill in the initial values to the light yellow cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step parameter     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t = </t>
   </si>
 </sst>
 </file>
@@ -78,18 +93,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -100,6 +109,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,11 +160,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B01EF-A15E-4CF5-A442-1EE4AEB5A422}">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,88 +524,106 @@
     <col min="4" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="H12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/question4.xlsx
+++ b/question4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Documents\GitHub\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041F8A8A-76B2-4938-9C1C-634E04B4866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3BD44D-2055-4D05-95AB-DF91DBE4FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="50" windowWidth="18620" windowHeight="10030" xr2:uid="{AA737C8F-C795-494B-9C77-F7EC1310A927}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA737C8F-C795-494B-9C77-F7EC1310A927}"/>
   </bookViews>
   <sheets>
     <sheet name="question4" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +173,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -512,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B01EF-A15E-4CF5-A442-1EE4AEB5A422}">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -622,8 +623,24 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
